--- a/doc/Шаблон_регистрация_ккт.xlsx
+++ b/doc/Шаблон_регистрация_ккт.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABalagura\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABalagura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="15015" windowHeight="10170"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="25245" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>A851</t>
   </si>
@@ -86,9 +86,6 @@
     <t>https://www.paypaypay.ru/ru/Documents/OnlineService/index.html</t>
   </si>
   <si>
-    <t>Другой Агент</t>
-  </si>
-  <si>
     <t>Модель</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>МестоРасчетов</t>
   </si>
   <si>
-    <t>ТипАгента</t>
-  </si>
-  <si>
     <t>НомерАвтомата</t>
   </si>
   <si>
@@ -147,13 +141,22 @@
   </si>
   <si>
     <t>ОСН</t>
+  </si>
+  <si>
+    <t>PAYONLINE(Город)</t>
+  </si>
+  <si>
+    <t>Признаки_условий_ККТ</t>
+  </si>
+  <si>
+    <t>1,2,5,6,8,9,10,11,12,13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +180,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -221,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -262,6 +272,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -566,10 +577,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,56 +595,58 @@
     <col min="8" max="8" width="24.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="42.85546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="2"/>
+    <col min="11" max="11" width="21" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -672,16 +685,16 @@
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -714,22 +727,22 @@
         <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="P3" s="1"/>
     </row>
